--- a/natmiOut/OldD7/LR-pairs_lrc2p/Nlgn3-Nrxn2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Nlgn3-Nrxn2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Nlgn3</t>
   </si>
   <si>
     <t>Nrxn2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -531,49 +534,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.799096581803673</v>
+        <v>0.2841056666666666</v>
       </c>
       <c r="H2">
-        <v>0.799096581803673</v>
+        <v>0.852317</v>
       </c>
       <c r="I2">
-        <v>0.7769679875955214</v>
+        <v>0.1466007552634951</v>
       </c>
       <c r="J2">
-        <v>0.7769679875955214</v>
+        <v>0.1466007552634951</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.5806166985054571</v>
+        <v>0.09268433333333333</v>
       </c>
       <c r="N2">
-        <v>0.5806166985054571</v>
+        <v>0.278053</v>
       </c>
       <c r="O2">
-        <v>0.7918357906488654</v>
+        <v>0.1040432947149345</v>
       </c>
       <c r="P2">
-        <v>0.7918357906488654</v>
+        <v>0.1040432947149346</v>
       </c>
       <c r="Q2">
-        <v>0.4639688191138445</v>
+        <v>0.02633214431122222</v>
       </c>
       <c r="R2">
-        <v>0.4639688191138445</v>
+        <v>0.236989298801</v>
       </c>
       <c r="S2">
-        <v>0.6152310607665576</v>
+        <v>0.01525282558531181</v>
       </c>
       <c r="T2">
-        <v>0.6152310607665576</v>
+        <v>0.01525282558531181</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +584,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.799096581803673</v>
+        <v>0.2841056666666666</v>
       </c>
       <c r="H3">
-        <v>0.799096581803673</v>
+        <v>0.852317</v>
       </c>
       <c r="I3">
-        <v>0.7769679875955214</v>
+        <v>0.1466007552634951</v>
       </c>
       <c r="J3">
-        <v>0.7769679875955214</v>
+        <v>0.1466007552634951</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.152637222777482</v>
+        <v>0.5898666666666667</v>
       </c>
       <c r="N3">
-        <v>0.152637222777482</v>
+        <v>1.7696</v>
       </c>
       <c r="O3">
-        <v>0.2081642093511345</v>
+        <v>0.6621579854471923</v>
       </c>
       <c r="P3">
-        <v>0.2081642093511345</v>
+        <v>0.6621579854471924</v>
       </c>
       <c r="Q3">
-        <v>0.1219718829774916</v>
+        <v>0.1675844625777778</v>
       </c>
       <c r="R3">
-        <v>0.1219718829774916</v>
+        <v>1.5082601632</v>
       </c>
       <c r="S3">
-        <v>0.1617369268289638</v>
+        <v>0.09707286077031278</v>
       </c>
       <c r="T3">
-        <v>0.1617369268289638</v>
+        <v>0.09707286077031281</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.22938412082686</v>
+        <v>0.2841056666666666</v>
       </c>
       <c r="H4">
-        <v>0.22938412082686</v>
+        <v>0.852317</v>
       </c>
       <c r="I4">
-        <v>0.2230320124044787</v>
+        <v>0.1466007552634951</v>
       </c>
       <c r="J4">
-        <v>0.2230320124044787</v>
+        <v>0.1466007552634951</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5806166985054571</v>
+        <v>0.2082736666666667</v>
       </c>
       <c r="N4">
-        <v>0.5806166985054571</v>
+        <v>0.624821</v>
       </c>
       <c r="O4">
-        <v>0.7918357906488654</v>
+        <v>0.2337987198378731</v>
       </c>
       <c r="P4">
-        <v>0.7918357906488654</v>
+        <v>0.2337987198378731</v>
       </c>
       <c r="Q4">
-        <v>0.1331842509240683</v>
+        <v>0.05917172891744444</v>
       </c>
       <c r="R4">
-        <v>0.1331842509240683</v>
+        <v>0.532545560257</v>
       </c>
       <c r="S4">
-        <v>0.176604729882308</v>
+        <v>0.03427506890787049</v>
       </c>
       <c r="T4">
-        <v>0.176604729882308</v>
+        <v>0.03427506890787049</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,557 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.8048609999999999</v>
+      </c>
+      <c r="H5">
+        <v>2.414583</v>
+      </c>
+      <c r="I5">
+        <v>0.4153145970881676</v>
+      </c>
+      <c r="J5">
+        <v>0.4153145970881677</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.09268433333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.278053</v>
+      </c>
+      <c r="O5">
+        <v>0.1040432947149345</v>
+      </c>
+      <c r="P5">
+        <v>0.1040432947149346</v>
+      </c>
+      <c r="Q5">
+        <v>0.07459800521099999</v>
+      </c>
+      <c r="R5">
+        <v>0.6713820468989999</v>
+      </c>
+      <c r="S5">
+        <v>0.04321069902425852</v>
+      </c>
+      <c r="T5">
+        <v>0.04321069902425853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.8048609999999999</v>
+      </c>
+      <c r="H6">
+        <v>2.414583</v>
+      </c>
+      <c r="I6">
+        <v>0.4153145970881676</v>
+      </c>
+      <c r="J6">
+        <v>0.4153145970881677</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.5898666666666667</v>
+      </c>
+      <c r="N6">
+        <v>1.7696</v>
+      </c>
+      <c r="O6">
+        <v>0.6621579854471923</v>
+      </c>
+      <c r="P6">
+        <v>0.6621579854471924</v>
+      </c>
+      <c r="Q6">
+        <v>0.4747606751999999</v>
+      </c>
+      <c r="R6">
+        <v>4.2728460768</v>
+      </c>
+      <c r="S6">
+        <v>0.2750038769347135</v>
+      </c>
+      <c r="T6">
+        <v>0.2750038769347135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.8048609999999999</v>
+      </c>
+      <c r="H7">
+        <v>2.414583</v>
+      </c>
+      <c r="I7">
+        <v>0.4153145970881676</v>
+      </c>
+      <c r="J7">
+        <v>0.4153145970881677</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.2082736666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.624821</v>
+      </c>
+      <c r="O7">
+        <v>0.2337987198378731</v>
+      </c>
+      <c r="P7">
+        <v>0.2337987198378731</v>
+      </c>
+      <c r="Q7">
+        <v>0.167631351627</v>
+      </c>
+      <c r="R7">
+        <v>1.508682164643</v>
+      </c>
+      <c r="S7">
+        <v>0.09710002112919563</v>
+      </c>
+      <c r="T7">
+        <v>0.09710002112919565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.2762093333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.8286279999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.1425261852485395</v>
+      </c>
+      <c r="J8">
+        <v>0.1425261852485395</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.09268433333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.278053</v>
+      </c>
+      <c r="O8">
+        <v>0.1040432947149345</v>
+      </c>
+      <c r="P8">
+        <v>0.1040432947149346</v>
+      </c>
+      <c r="Q8">
+        <v>0.02560027792044444</v>
+      </c>
+      <c r="R8">
+        <v>0.230402501284</v>
+      </c>
+      <c r="S8">
+        <v>0.01482889389640915</v>
+      </c>
+      <c r="T8">
+        <v>0.01482889389640915</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.2762093333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.8286279999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.1425261852485395</v>
+      </c>
+      <c r="J9">
+        <v>0.1425261852485395</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5898666666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.7696</v>
+      </c>
+      <c r="O9">
+        <v>0.6621579854471923</v>
+      </c>
+      <c r="P9">
+        <v>0.6621579854471924</v>
+      </c>
+      <c r="Q9">
+        <v>0.1629266787555555</v>
+      </c>
+      <c r="R9">
+        <v>1.4663401088</v>
+      </c>
+      <c r="S9">
+        <v>0.09437485169764623</v>
+      </c>
+      <c r="T9">
+        <v>0.09437485169764624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.2762093333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.8286279999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.1425261852485395</v>
+      </c>
+      <c r="J10">
+        <v>0.1425261852485395</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.2082736666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.624821</v>
+      </c>
+      <c r="O10">
+        <v>0.2337987198378731</v>
+      </c>
+      <c r="P10">
+        <v>0.2337987198378731</v>
+      </c>
+      <c r="Q10">
+        <v>0.05752713062088888</v>
+      </c>
+      <c r="R10">
+        <v>0.5177441755879999</v>
+      </c>
+      <c r="S10">
+        <v>0.03332243965448407</v>
+      </c>
+      <c r="T10">
+        <v>0.03332243965448407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.22938412082686</v>
-      </c>
-      <c r="H5">
-        <v>0.22938412082686</v>
-      </c>
-      <c r="I5">
-        <v>0.2230320124044787</v>
-      </c>
-      <c r="J5">
-        <v>0.2230320124044787</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.152637222777482</v>
-      </c>
-      <c r="N5">
-        <v>0.152637222777482</v>
-      </c>
-      <c r="O5">
-        <v>0.2081642093511345</v>
-      </c>
-      <c r="P5">
-        <v>0.2081642093511345</v>
-      </c>
-      <c r="Q5">
-        <v>0.03501255515226628</v>
-      </c>
-      <c r="R5">
-        <v>0.03501255515226628</v>
-      </c>
-      <c r="S5">
-        <v>0.04642728252217072</v>
-      </c>
-      <c r="T5">
-        <v>0.04642728252217072</v>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.572779</v>
+      </c>
+      <c r="H11">
+        <v>1.718337</v>
+      </c>
+      <c r="I11">
+        <v>0.2955584623997977</v>
+      </c>
+      <c r="J11">
+        <v>0.2955584623997977</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.09268433333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.278053</v>
+      </c>
+      <c r="O11">
+        <v>0.1040432947149345</v>
+      </c>
+      <c r="P11">
+        <v>0.1040432947149346</v>
+      </c>
+      <c r="Q11">
+        <v>0.05308763976233333</v>
+      </c>
+      <c r="R11">
+        <v>0.477788757861</v>
+      </c>
+      <c r="S11">
+        <v>0.03075087620895505</v>
+      </c>
+      <c r="T11">
+        <v>0.03075087620895505</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.572779</v>
+      </c>
+      <c r="H12">
+        <v>1.718337</v>
+      </c>
+      <c r="I12">
+        <v>0.2955584623997977</v>
+      </c>
+      <c r="J12">
+        <v>0.2955584623997977</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.5898666666666667</v>
+      </c>
+      <c r="N12">
+        <v>1.7696</v>
+      </c>
+      <c r="O12">
+        <v>0.6621579854471923</v>
+      </c>
+      <c r="P12">
+        <v>0.6621579854471924</v>
+      </c>
+      <c r="Q12">
+        <v>0.3378632394666667</v>
+      </c>
+      <c r="R12">
+        <v>3.0407691552</v>
+      </c>
+      <c r="S12">
+        <v>0.1957063960445198</v>
+      </c>
+      <c r="T12">
+        <v>0.1957063960445198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.572779</v>
+      </c>
+      <c r="H13">
+        <v>1.718337</v>
+      </c>
+      <c r="I13">
+        <v>0.2955584623997977</v>
+      </c>
+      <c r="J13">
+        <v>0.2955584623997977</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.2082736666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.624821</v>
+      </c>
+      <c r="O13">
+        <v>0.2337987198378731</v>
+      </c>
+      <c r="P13">
+        <v>0.2337987198378731</v>
+      </c>
+      <c r="Q13">
+        <v>0.1192947825196667</v>
+      </c>
+      <c r="R13">
+        <v>1.073653042677</v>
+      </c>
+      <c r="S13">
+        <v>0.06910119014632285</v>
+      </c>
+      <c r="T13">
+        <v>0.06910119014632285</v>
       </c>
     </row>
   </sheetData>
